--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7757839506172839</v>
+        <v>0.7592577319587629</v>
       </c>
       <c r="C4">
-        <v>0.009138729430861359</v>
+        <v>0.008927320112914749</v>
       </c>
       <c r="D4">
-        <v>0.4341372014332994</v>
+        <v>0.4305558691519373</v>
       </c>
       <c r="E4">
-        <v>0.01150829531874775</v>
+        <v>0.01087073751162515</v>
       </c>
       <c r="F4">
-        <v>0.6944444444444444</v>
+        <v>0.6865000000000001</v>
       </c>
       <c r="G4">
-        <v>0.02321300223866329</v>
+        <v>0.02042754712287465</v>
       </c>
       <c r="H4">
-        <v>0.3172979456373219</v>
+        <v>0.3149863184788543</v>
       </c>
       <c r="I4">
-        <v>0.008200754174374103</v>
+        <v>0.008262696836703776</v>
       </c>
       <c r="J4">
-        <v>0.9207790043974028</v>
+        <v>0.9150190452731521</v>
       </c>
       <c r="K4">
-        <v>0.005292949697931149</v>
+        <v>0.005042097173536542</v>
       </c>
       <c r="L4">
-        <v>0.7007777777777778</v>
+        <v>0.6904123711340207</v>
       </c>
       <c r="M4">
-        <v>0.00838644455338089</v>
+        <v>0.008710060318622093</v>
       </c>
       <c r="N4">
-        <v>0.6997222222222221</v>
+        <v>0.6897435897435896</v>
       </c>
       <c r="O4">
-        <v>0.0069102046561621</v>
+        <v>0.007520880224576532</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7991975308641976</v>
+        <v>0.7894536082474228</v>
       </c>
       <c r="C5">
-        <v>0.008143862441739813</v>
+        <v>0.008909494496943893</v>
       </c>
       <c r="D5">
-        <v>0.4629035277888336</v>
+        <v>0.4689774003384417</v>
       </c>
       <c r="E5">
-        <v>0.01054631448033949</v>
+        <v>0.01021239971504684</v>
       </c>
       <c r="F5">
-        <v>0.7122222222222224</v>
+        <v>0.7245</v>
       </c>
       <c r="G5">
-        <v>0.01747387912768783</v>
+        <v>0.01925706768132363</v>
       </c>
       <c r="H5">
-        <v>0.3445030202354988</v>
+        <v>0.3485701336729614</v>
       </c>
       <c r="I5">
-        <v>0.008719402182700509</v>
+        <v>0.008494637219239931</v>
       </c>
       <c r="J5">
-        <v>0.9268507405169798</v>
+        <v>0.9274253233621826</v>
       </c>
       <c r="K5">
-        <v>0.004044559367563982</v>
+        <v>0.004614753515659764</v>
       </c>
       <c r="L5">
-        <v>0.726</v>
+        <v>0.7183505154639175</v>
       </c>
       <c r="M5">
-        <v>0.008858847351061239</v>
+        <v>0.008697555782753774</v>
       </c>
       <c r="N5">
-        <v>0.7237037037037038</v>
+        <v>0.7194017094017094</v>
       </c>
       <c r="O5">
-        <v>0.007629929558723325</v>
+        <v>0.007077309396351539</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8500961538461539</v>
+        <v>0.8572093023255815</v>
       </c>
       <c r="C6">
-        <v>0.01108472462532872</v>
+        <v>0.01167665952233943</v>
       </c>
       <c r="D6">
-        <v>0.4963840565140162</v>
+        <v>0.480094615800341</v>
       </c>
       <c r="E6">
-        <v>0.01809653718594531</v>
+        <v>0.01949476970769692</v>
       </c>
       <c r="F6">
-        <v>0.7475000000000001</v>
+        <v>0.70875</v>
       </c>
       <c r="G6">
-        <v>0.03113064969883883</v>
+        <v>0.03251221015951022</v>
       </c>
       <c r="H6">
-        <v>0.3769770711557628</v>
+        <v>0.3678203554944032</v>
       </c>
       <c r="I6">
-        <v>0.015281312007837</v>
+        <v>0.01635315698098988</v>
       </c>
       <c r="J6">
-        <v>0.9360503669625612</v>
+        <v>0.9352821281796834</v>
       </c>
       <c r="K6">
-        <v>0.007352983082072773</v>
+        <v>0.006911503780065109</v>
       </c>
       <c r="L6">
-        <v>0.739230769230769</v>
+        <v>0.767906976744186</v>
       </c>
       <c r="M6">
-        <v>0.01417159266374401</v>
+        <v>0.01212881730872384</v>
       </c>
       <c r="N6">
-        <v>0.7406382978723406</v>
+        <v>0.758627450980392</v>
       </c>
       <c r="O6">
-        <v>0.01201145613914212</v>
+        <v>0.01098619219481844</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8342948717948718</v>
+        <v>0.8604069767441861</v>
       </c>
       <c r="C7">
-        <v>0.01159262826048935</v>
+        <v>0.01151777165100543</v>
       </c>
       <c r="D7">
-        <v>0.5065727823007572</v>
+        <v>0.5170067935762852</v>
       </c>
       <c r="E7">
-        <v>0.01736997150472652</v>
+        <v>0.01706511421363865</v>
       </c>
       <c r="F7">
-        <v>0.76</v>
+        <v>0.7675</v>
       </c>
       <c r="G7">
-        <v>0.03430249373889516</v>
+        <v>0.03560731517565163</v>
       </c>
       <c r="H7">
-        <v>0.3877480753773828</v>
+        <v>0.3975930494514086</v>
       </c>
       <c r="I7">
-        <v>0.01575931402743685</v>
+        <v>0.01330807258404293</v>
       </c>
       <c r="J7">
-        <v>0.9411512262302941</v>
+        <v>0.9497458236075457</v>
       </c>
       <c r="K7">
-        <v>0.007791252784546399</v>
+        <v>0.00710009637679665</v>
       </c>
       <c r="L7">
-        <v>0.746923076923077</v>
+        <v>0.7793023255813952</v>
       </c>
       <c r="M7">
-        <v>0.01434761898586123</v>
+        <v>0.01220862028792757</v>
       </c>
       <c r="N7">
-        <v>0.7491489361702128</v>
+        <v>0.7774509803921569</v>
       </c>
       <c r="O7">
-        <v>0.01067173080182404</v>
+        <v>0.00925946774754971</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.806577540106952</v>
+        <v>0.7927364864864866</v>
       </c>
       <c r="C8">
-        <v>0.01142616817862752</v>
+        <v>0.01186510999896451</v>
       </c>
       <c r="D8">
-        <v>0.4532144128696002</v>
+        <v>0.4263356575641694</v>
       </c>
       <c r="E8">
-        <v>0.0105749713510595</v>
+        <v>0.0106819685735966</v>
       </c>
       <c r="F8">
-        <v>0.8354545454545453</v>
+        <v>0.7908333333333334</v>
       </c>
       <c r="G8">
-        <v>0.02093825619359402</v>
+        <v>0.02367705232971851</v>
       </c>
       <c r="H8">
-        <v>0.3129109367989453</v>
+        <v>0.2935349939599777</v>
       </c>
       <c r="I8">
-        <v>0.008733803697362541</v>
+        <v>0.008150059986174851</v>
       </c>
       <c r="J8">
-        <v>0.9640224666748385</v>
+        <v>0.9539966809863547</v>
       </c>
       <c r="K8">
-        <v>0.004432890276759416</v>
+        <v>0.004890356455332201</v>
       </c>
       <c r="L8">
-        <v>0.6977941176470587</v>
+        <v>0.6878378378378378</v>
       </c>
       <c r="M8">
-        <v>0.01130789114575648</v>
+        <v>0.01056517687924274</v>
       </c>
       <c r="N8">
-        <v>0.7169620253164557</v>
+        <v>0.7022093023255814</v>
       </c>
       <c r="O8">
-        <v>0.009367371513373968</v>
+        <v>0.008625975115450824</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8265508021390374</v>
+        <v>0.8320945945945946</v>
       </c>
       <c r="C9">
-        <v>0.009694171961292741</v>
+        <v>0.009367732151440711</v>
       </c>
       <c r="D9">
-        <v>0.4578796927860605</v>
+        <v>0.4553705955972561</v>
       </c>
       <c r="E9">
-        <v>0.01169817016102548</v>
+        <v>0.01211931938060895</v>
       </c>
       <c r="F9">
-        <v>0.7890909090909092</v>
+        <v>0.78</v>
       </c>
       <c r="G9">
-        <v>0.0237596417935283</v>
+        <v>0.02186067488654586</v>
       </c>
       <c r="H9">
-        <v>0.3243383145938338</v>
+        <v>0.3235558722722482</v>
       </c>
       <c r="I9">
-        <v>0.008962277370736849</v>
+        <v>0.009921203091414532</v>
       </c>
       <c r="J9">
-        <v>0.9562342658631802</v>
+        <v>0.9539633962123536</v>
       </c>
       <c r="K9">
-        <v>0.004643894111983293</v>
+        <v>0.004414159293820052</v>
       </c>
       <c r="L9">
-        <v>0.7313235294117646</v>
+        <v>0.7309459459459461</v>
       </c>
       <c r="M9">
-        <v>0.009226067437822505</v>
+        <v>0.0100912106339216</v>
       </c>
       <c r="N9">
-        <v>0.7393670886075949</v>
+        <v>0.7377906976744186</v>
       </c>
       <c r="O9">
-        <v>0.00776486025122769</v>
+        <v>0.008826120074928778</v>
       </c>
     </row>
   </sheetData>
